--- a/TEAM_Example/Team_Example_Challenge1/metrics/hackathon_final_scores.xlsx
+++ b/TEAM_Example/Team_Example_Challenge1/metrics/hackathon_final_scores.xlsx
@@ -568,7 +568,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TEAM_Diagnobac_Challenge1</t>
+          <t>TEAM_Example_Challenge1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
